--- a/DataTable/Index.xlsx
+++ b/DataTable/Index.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="12975"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>模式</t>
   </si>
@@ -83,16 +83,22 @@
   <si>
     <t>..\Sound.xlsx</t>
   </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>..\Theme.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -550,19 +556,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,13 +1023,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
@@ -1081,6 +1087,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataTable/Index.xlsx
+++ b/DataTable/Index.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12525"/>
+    <workbookView windowWidth="27950" windowHeight="12550"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>模式</t>
   </si>
@@ -89,16 +89,22 @@
   <si>
     <t>..\Theme.xlsx</t>
   </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>..\Skin.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -556,19 +562,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,13 +1029,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
@@ -1098,6 +1104,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataTable/Index.xlsx
+++ b/DataTable/Index.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="12550"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>模式</t>
   </si>
@@ -95,16 +95,22 @@
   <si>
     <t>..\Skin.xlsx</t>
   </si>
+  <si>
+    <t>LevelAdReward</t>
+  </si>
+  <si>
+    <t>..\LevelAdReward.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -562,19 +568,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,13 +1035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
@@ -1115,6 +1121,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
